--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>11030</v>
+        <v>1200</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>275</v>
+        <v>11030</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Casa de Lata Solar SpA</t>
+          <t>Tedlar Mercurio SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,11 +4519,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,16 +5234,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>11030</v>
+        <v>1200</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,16 +5330,16 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>275</v>
+        <v>11030</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12535,11 +12535,11 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,11 +4615,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,11 +5431,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,11 +12631,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,11 +4567,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,11 +4615,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,16 +5282,16 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>11030</v>
+        <v>1200</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5300,12 +5300,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,11 +5431,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>275</v>
+        <v>11030</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12583,11 +12583,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -12596,12 +12596,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12631,11 +12631,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -12644,12 +12644,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>11030</v>
+        <v>1200</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,11 +5431,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>275</v>
+        <v>11030</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,16 +5378,16 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,11 +5431,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12679,11 +12679,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -12692,12 +12692,12 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DESARROLLO INMOBILIARIO HUERTOS DE CHILLÁN, ETAPA 3 LOTE A3</t>
+          <t>Desarrollo Inmobiliario Parque Universitario, Etapa 2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -443,21 +443,21 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8927</v>
+        <v>31911</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/04/2022</t>
+          <t>06/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155614211&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155512900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Desarrollo Inmobiliario Parque Universitario, Etapa 2</t>
+          <t>DESARROLLO INMOBILIARIO HUERTOS DE CHILLÁN, ETAPA 3 LOTE A3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>31911</v>
+        <v>8927</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -500,12 +500,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155512900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155614211&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Desarrollo Inmobiliario Parque Universitario, Etapa 2</t>
+          <t>DESARROLLO INMOBILIARIO HUERTOS DE CHILLÁN, ETAPA 3 LOTE A3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>31911</v>
+        <v>8927</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -452,12 +452,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155512900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155614211&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DESARROLLO INMOBILIARIO HUERTOS DE CHILLÁN, ETAPA 3 LOTE A3</t>
+          <t>Desarrollo Inmobiliario Parque Universitario, Etapa 2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,21 +491,21 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8927</v>
+        <v>31911</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>29/04/2022</t>
+          <t>06/05/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155614211&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155512900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>11030</v>
+        <v>1200</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,16 +5522,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>275</v>
+        <v>11030</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,16 +5426,16 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,16 +5522,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12727,11 +12727,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -12740,12 +12740,12 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2022</t>
+          <t>25/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>11030</v>
+        <v>1200</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,16 +5570,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>275</v>
+        <v>11030</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,16 +5570,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26/05/2022</t>
+          <t>02/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,16 +5474,16 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,16 +5570,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12775,11 +12775,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,16 +5522,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>11030</v>
+        <v>1200</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,16 +5618,16 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>275</v>
+        <v>11030</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,16 +5522,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,16 +5618,16 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/06/2022</t>
+          <t>05/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,16 +5522,16 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,16 +5618,16 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -14503,7 +14503,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F295" t="n">
@@ -14551,7 +14551,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F296" t="n">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,16 +5570,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,16 +5666,16 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/07/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,16 +5570,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>11030</v>
+        <v>1200</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,16 +5666,16 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>275</v>
+        <v>11030</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -3044,7 +3044,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,16 +5666,16 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>11030</v>
+        <v>1200</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,16 +5762,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>275</v>
+        <v>11030</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,16 +5666,16 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,16 +5762,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DESARROLLO INMOBILIARIO HUERTOS DE CHILLÁN, ETAPA 3 LOTE A3</t>
+          <t>Rinconada Solar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Rinconada Solar SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8927</v>
+        <v>50000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/08/2022</t>
+          <t>23/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156691738&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156784061&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rinconada Solar</t>
+          <t>DESARROLLO INMOBILIARIO HUERTOS DE CHILLÁN, ETAPA 3 LOTE A3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Rinconada Solar SpA</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>50000</v>
+        <v>8927</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>19/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156784061&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156691738&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rinconada Solar</t>
+          <t>DESARROLLO INMOBILIARIO HUERTOS DE CHILLÁN, ETAPA 3 LOTE A3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Rinconada Solar SpA</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>50000</v>
+        <v>8927</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/08/2022</t>
+          <t>25/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156784061&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156691738&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DESARROLLO INMOBILIARIO HUERTOS DE CHILLÁN, ETAPA 3 LOTE A3</t>
+          <t>Rinconada Solar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Rinconada Solar SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8927</v>
+        <v>50000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>19/08/2022</t>
+          <t>23/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156691738&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156784061&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,16 +5666,16 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>11030</v>
+        <v>1200</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,16 +5762,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>275</v>
+        <v>11030</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>Planta Solar San Juan SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,16 +5666,16 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,16 +5762,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,16 +5714,16 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,16 +5810,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,16 +5714,16 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>11030</v>
+        <v>1200</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,16 +5810,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>275</v>
+        <v>11030</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/09/2022</t>
+          <t>05/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,16 +5762,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>11030</v>
+        <v>1200</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>275</v>
+        <v>11030</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,16 +5762,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5780,12 +5780,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>07/10/2022</t>
+          <t>17/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -13015,7 +13015,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F264" t="n">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F267" t="n">
@@ -14599,7 +14599,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F297" t="n">
@@ -14647,7 +14647,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F298" t="n">
@@ -14887,7 +14887,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F303" t="n">
@@ -16471,7 +16471,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F336" t="n">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,16 +5810,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>11030</v>
+        <v>1200</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>275</v>
+        <v>11030</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,16 +5810,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FV Ñuble</t>
+          <t>Loteo Altos del Este, Lote C-2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Carmen Solar SpA</t>
+          <t>Constructora e Inmobiliaria CVP SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/01/2023</t>
+          <t>19/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158436804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158415931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Loteo Altos del Este, Lote C-2</t>
+          <t>FV Ñuble</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Constructora e Inmobiliaria CVP SpA</t>
+          <t>Carmen Solar SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12/01/2023</t>
+          <t>18/01/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158415931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158436804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>11030</v>
+        <v>1200</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>275</v>
+        <v>11030</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FV Aldea</t>
+          <t>FV Ñuble</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Marina Solar SpA</t>
+          <t>Carmen Solar SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/01/2023</t>
+          <t>23/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158447680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158436804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Loteo Altos del Este, Lote C-2</t>
+          <t>FV Aldea</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Constructora e Inmobiliaria CVP SpA</t>
+          <t>Marina Solar SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>19/01/2023</t>
+          <t>20/01/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158415931&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158447680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FV Ñuble</t>
+          <t>Loteo Altos del Este, Lote C-2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Carmen Solar SpA</t>
+          <t>Constructora e Inmobiliaria CVP SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18/01/2023</t>
+          <t>19/01/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158436804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158415931&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>11030</v>
+        <v>1200</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>275</v>
+        <v>11030</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/01/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>11030</v>
+        <v>1200</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>275</v>
+        <v>11030</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Santa Rufina</t>
+          <t>FV Aldea</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Constructora Inmobiliaria e Inversiones Oval Limitada</t>
+          <t>Marina Solar SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>15075</v>
+        <v>12000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/02/2023</t>
+          <t>17/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158499658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158447680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FV Ñuble</t>
+          <t>Santa Rufina</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Carmen Solar SpA</t>
+          <t>Constructora Inmobiliaria e Inversiones Oval Limitada</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>13000</v>
+        <v>15075</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/01/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158436804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158499658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FV Aldea</t>
+          <t>FV Ñuble</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Marina Solar SpA</t>
+          <t>Carmen Solar SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/01/2023</t>
+          <t>23/01/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158447680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158436804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/03/2023</t>
+          <t>20/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>11030</v>
+        <v>1200</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,16 +6098,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>275</v>
+        <v>11030</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,11 +13351,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,16 +6098,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,11 +13351,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/03/2023</t>
+          <t>18/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>11030</v>
+        <v>1200</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,16 +6098,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>275</v>
+        <v>11030</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,11 +13351,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2023</t>
+          <t>23/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,16 +6098,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,11 +13351,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>11030</v>
+        <v>1200</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,16 +6098,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>275</v>
+        <v>11030</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,11 +13351,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,16 +6098,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,11 +13351,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -6391,7 +6391,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Reprocessing Technology Chile Limitada</t>
+          <t>Reprocessing Technology Chile SpA</t>
         </is>
       </c>
       <c r="F126" t="n">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>11030</v>
+        <v>1200</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,16 +6146,16 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>275</v>
+        <v>11030</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,11 +13351,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13399,11 +13399,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,16 +6050,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,16 +6146,16 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,11 +13351,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13399,11 +13399,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,11 +5431,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,16 +6098,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,16 +6194,16 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13399,11 +13399,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,11 +13447,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,11 +5431,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,16 +6098,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>11030</v>
+        <v>1200</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,16 +6194,16 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>275</v>
+        <v>11030</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13399,11 +13399,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,11 +13447,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/09/2023</t>
+          <t>06/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,11 +5431,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,16 +6146,16 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,16 +6242,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -13399,7 +13399,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F272" t="n">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,11 +13447,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13495,11 +13495,11 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13543,7 +13543,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F275" t="n">
@@ -14983,7 +14983,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F305" t="n">
@@ -15031,7 +15031,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F306" t="n">
@@ -15271,7 +15271,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F311" t="n">
@@ -16855,7 +16855,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F344" t="n">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,11 +5431,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,16 +6146,16 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>11030</v>
+        <v>1200</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,16 +6242,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>275</v>
+        <v>11030</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,11 +13447,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13495,11 +13495,11 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,11 +5431,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,16 +6146,16 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,16 +6242,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,11 +13447,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13495,11 +13495,11 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,11 +5431,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,16 +6146,16 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1200</v>
+        <v>11030</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,16 +6242,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>11030</v>
+        <v>275</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,11 +13447,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13495,11 +13495,11 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">

--- a/data/Chillán.xlsx
+++ b/data/Chillán.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,11 +5431,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,16 +6146,16 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Inmobiliaria Doñihue SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>11030</v>
+        <v>1200</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,16 +6242,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Inmobiliaria Viviendas 2000 SpA.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Modificación de cauce canal Jardín del Este y canal La Colonia</t>
+          <t>Conjunto Habitacional Arboleda de Chillán I &amp; II</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Inmobiliaria Viviendas 2000 SpA.</t>
+          <t>Inmobiliaria Doñihue SpA</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>275</v>
+        <v>11030</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128973095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128957966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,11 +13447,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13495,11 +13495,11 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
